--- a/Data/5. Odluka.xlsx
+++ b/Data/5. Odluka.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngersak\Documents\Rstudio\HUSZPO_clanak-nasadi\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngersak\Documents\GitHub\HUSZPO_conference-article\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E446BC6-B758-4E55-BA13-6EA73E3AF26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AE6904-06A2-47BB-8E77-A86EA5FF4532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="333">
   <si>
     <t>USP</t>
   </si>
@@ -1021,6 +1021,9 @@
   </si>
   <si>
     <t>Prizdrina</t>
+  </si>
+  <si>
+    <t>3718, 455/1</t>
   </si>
 </sst>
 </file>
@@ -1382,8 +1385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="N83" sqref="N83"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1391,7 +1394,7 @@
     <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="7"/>
+    <col min="6" max="6" width="132.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="8"/>
   </cols>
   <sheetData>
@@ -2416,7 +2419,7 @@
         <v>322</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>77</v>
+        <v>332</v>
       </c>
       <c r="G44" s="8">
         <v>2</v>
